--- a/Code/Results/Cases/Case_8_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021781793293527</v>
+        <v>1.018103336816383</v>
       </c>
       <c r="D2">
-        <v>1.0388620645667</v>
+        <v>1.035351399319726</v>
       </c>
       <c r="E2">
-        <v>1.034540393481579</v>
+        <v>1.031453665901616</v>
       </c>
       <c r="F2">
-        <v>1.043670396159683</v>
+        <v>1.040796822127959</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052131208445463</v>
+        <v>1.050234148510822</v>
       </c>
       <c r="J2">
-        <v>1.043329975527693</v>
+        <v>1.039755741193091</v>
       </c>
       <c r="K2">
-        <v>1.049805290715661</v>
+        <v>1.046339259235141</v>
       </c>
       <c r="L2">
-        <v>1.045538618159127</v>
+        <v>1.042491525810053</v>
       </c>
       <c r="M2">
-        <v>1.054553097858338</v>
+        <v>1.051715610801186</v>
       </c>
       <c r="N2">
-        <v>1.044811623764583</v>
+        <v>1.031887688792729</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051747422027738</v>
+        <v>1.049501772238428</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04628690108655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043844852923629</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024294607372179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025159276003319</v>
+        <v>1.021242963417364</v>
       </c>
       <c r="D3">
-        <v>1.041114729988737</v>
+        <v>1.037371139060104</v>
       </c>
       <c r="E3">
-        <v>1.037139626192819</v>
+        <v>1.033847332278674</v>
       </c>
       <c r="F3">
-        <v>1.046161459801695</v>
+        <v>1.043098859035878</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05287460009502</v>
+        <v>1.050846294393404</v>
       </c>
       <c r="J3">
-        <v>1.04498680457191</v>
+        <v>1.041170811643864</v>
       </c>
       <c r="K3">
-        <v>1.051247238369973</v>
+        <v>1.047547176467213</v>
       </c>
       <c r="L3">
-        <v>1.047318368303912</v>
+        <v>1.044064699691474</v>
       </c>
       <c r="M3">
-        <v>1.056235895331269</v>
+        <v>1.053208453204699</v>
       </c>
       <c r="N3">
-        <v>1.046470805696064</v>
+        <v>1.032681053355578</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.05307922185647</v>
+        <v>1.050683241456302</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047303824166961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044696023943923</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024523585740067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02731093101084</v>
+        <v>1.023244289374801</v>
       </c>
       <c r="D4">
-        <v>1.042553994474709</v>
+        <v>1.038662720529763</v>
       </c>
       <c r="E4">
-        <v>1.038801242531382</v>
+        <v>1.035378887064842</v>
       </c>
       <c r="F4">
-        <v>1.047754864717947</v>
+        <v>1.044572600547418</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05334115361101</v>
+        <v>1.051229532809941</v>
       </c>
       <c r="J4">
-        <v>1.046040913236786</v>
+        <v>1.04207153051988</v>
       </c>
       <c r="K4">
-        <v>1.052164588150477</v>
+        <v>1.04831588211668</v>
       </c>
       <c r="L4">
-        <v>1.048452882056555</v>
+        <v>1.045068277619092</v>
       </c>
       <c r="M4">
-        <v>1.057309169589689</v>
+        <v>1.054161265296076</v>
       </c>
       <c r="N4">
-        <v>1.047526411316152</v>
+        <v>1.033186042253357</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053928631502557</v>
+        <v>1.051437317503686</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047953341401135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045240526362888</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024667084284768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028210594774794</v>
+        <v>1.024081244438992</v>
       </c>
       <c r="D5">
-        <v>1.04315863702575</v>
+        <v>1.039205748308028</v>
       </c>
       <c r="E5">
-        <v>1.039497827669245</v>
+        <v>1.036021200465059</v>
       </c>
       <c r="F5">
-        <v>1.048423202008138</v>
+        <v>1.045191015563744</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053535935917025</v>
+        <v>1.051389506217701</v>
       </c>
       <c r="J5">
-        <v>1.046482764958741</v>
+        <v>1.04244927851116</v>
       </c>
       <c r="K5">
-        <v>1.052550392392168</v>
+        <v>1.048639614881772</v>
       </c>
       <c r="L5">
-        <v>1.048928569220756</v>
+        <v>1.045489279379621</v>
       </c>
       <c r="M5">
-        <v>1.057759475175669</v>
+        <v>1.054561271095144</v>
       </c>
       <c r="N5">
-        <v>1.047968890518233</v>
+        <v>1.033397826442705</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.054285011617399</v>
+        <v>1.051753890497658</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048233223368156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045477244966158</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024727452301337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028364835377261</v>
+        <v>1.024224597579235</v>
       </c>
       <c r="D6">
-        <v>1.043264627426292</v>
+        <v>1.039301150878497</v>
       </c>
       <c r="E6">
-        <v>1.039617894019286</v>
+        <v>1.036131856301036</v>
       </c>
       <c r="F6">
-        <v>1.048538563660137</v>
+        <v>1.045297752256415</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053570955193073</v>
+        <v>1.051418510985006</v>
       </c>
       <c r="J6">
-        <v>1.046560265103983</v>
+        <v>1.042515659032875</v>
       </c>
       <c r="K6">
-        <v>1.052619624701494</v>
+        <v>1.048698182124766</v>
       </c>
       <c r="L6">
-        <v>1.049011551676672</v>
+        <v>1.045562782422468</v>
       </c>
       <c r="M6">
-        <v>1.057838231053322</v>
+        <v>1.054631338793319</v>
       </c>
       <c r="N6">
-        <v>1.048046500722571</v>
+        <v>1.03343504260768</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054347340448837</v>
+        <v>1.051809343532454</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048290823867961</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045528189561345</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02473891884989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027332778087412</v>
+        <v>1.023281682406268</v>
       </c>
       <c r="D7">
-        <v>1.04257475497631</v>
+        <v>1.038694676711016</v>
       </c>
       <c r="E7">
-        <v>1.038819669690289</v>
+        <v>1.035410569618956</v>
       </c>
       <c r="F7">
-        <v>1.047772936863508</v>
+        <v>1.044601516791181</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053350528357301</v>
+        <v>1.051246611221959</v>
       </c>
       <c r="J7">
-        <v>1.046056395816515</v>
+        <v>1.042102144524087</v>
       </c>
       <c r="K7">
-        <v>1.052182284266437</v>
+        <v>1.04834463468574</v>
       </c>
       <c r="L7">
-        <v>1.048468254797088</v>
+        <v>1.04509674478992</v>
       </c>
       <c r="M7">
-        <v>1.057324227692511</v>
+        <v>1.054187037155287</v>
       </c>
       <c r="N7">
-        <v>1.047541915882921</v>
+        <v>1.033254907606824</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053940548764525</v>
+        <v>1.051457713898589</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047985745847821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045282783461574</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024675768809173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022942635743287</v>
+        <v>1.01923607845073</v>
       </c>
       <c r="D8">
-        <v>1.039642952641514</v>
+        <v>1.03609190923952</v>
       </c>
       <c r="E8">
-        <v>1.03543449191944</v>
+        <v>1.032322969671308</v>
       </c>
       <c r="F8">
-        <v>1.044527532715161</v>
+        <v>1.041626843249806</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052393900875348</v>
+        <v>1.050478634034609</v>
       </c>
       <c r="J8">
-        <v>1.043905625747392</v>
+        <v>1.04030062649224</v>
       </c>
       <c r="K8">
-        <v>1.050311431065685</v>
+        <v>1.046804216753175</v>
       </c>
       <c r="L8">
-        <v>1.046154954741903</v>
+        <v>1.043082206798711</v>
       </c>
       <c r="M8">
-        <v>1.055136327764741</v>
+        <v>1.052270997113155</v>
       </c>
       <c r="N8">
-        <v>1.045388091473602</v>
+        <v>1.032349882675939</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052209002194733</v>
+        <v>1.049941317736487</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046667442366417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044198582191295</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024390604189191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014922073779676</v>
+        <v>1.011798272372261</v>
       </c>
       <c r="D9">
-        <v>1.034311451418336</v>
+        <v>1.031325440703427</v>
       </c>
       <c r="E9">
-        <v>1.029294131603997</v>
+        <v>1.026685172188163</v>
       </c>
       <c r="F9">
-        <v>1.038647660918359</v>
+        <v>1.036207859232645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050584510598104</v>
+        <v>1.048987923026032</v>
       </c>
       <c r="J9">
-        <v>1.039958680056409</v>
+        <v>1.036941173577306</v>
       </c>
       <c r="K9">
-        <v>1.046871339640182</v>
+        <v>1.043929936644984</v>
       </c>
       <c r="L9">
-        <v>1.041929161418643</v>
+        <v>1.039359644754337</v>
       </c>
       <c r="M9">
-        <v>1.051143350951027</v>
+        <v>1.048739586857143</v>
       </c>
       <c r="N9">
-        <v>1.041435540667017</v>
+        <v>1.030485271460594</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.049048872362728</v>
+        <v>1.04714647402699</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04423197790804</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042162880549067</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023832729430979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009435960377356</v>
+        <v>1.006795139277037</v>
       </c>
       <c r="D10">
-        <v>1.03070907702753</v>
+        <v>1.02816986433155</v>
       </c>
       <c r="E10">
-        <v>1.025150927472347</v>
+        <v>1.022956678330199</v>
       </c>
       <c r="F10">
-        <v>1.034717652570833</v>
+        <v>1.032651852705341</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049331855040323</v>
+        <v>1.047993194124454</v>
       </c>
       <c r="J10">
-        <v>1.037280139463258</v>
+        <v>1.034741726382347</v>
       </c>
       <c r="K10">
-        <v>1.044545156043013</v>
+        <v>1.042048472047946</v>
       </c>
       <c r="L10">
-        <v>1.039080452460348</v>
+        <v>1.036923454980496</v>
       </c>
       <c r="M10">
-        <v>1.048487139652152</v>
+        <v>1.046455574475195</v>
       </c>
       <c r="N10">
-        <v>1.038753196238991</v>
+        <v>1.029482736982608</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046997592874906</v>
+        <v>1.04538985620122</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042603900574502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040850936694949</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023470173630918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.007453477100512</v>
+        <v>1.005072913261882</v>
       </c>
       <c r="D11">
-        <v>1.029560788573614</v>
+        <v>1.027240220826392</v>
       </c>
       <c r="E11">
-        <v>1.023849897580804</v>
+        <v>1.021877379714313</v>
       </c>
       <c r="F11">
-        <v>1.033742271043111</v>
+        <v>1.031870813571035</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049024717321498</v>
+        <v>1.047819095838786</v>
       </c>
       <c r="J11">
-        <v>1.036519436731574</v>
+        <v>1.034236165367435</v>
       </c>
       <c r="K11">
-        <v>1.043945963501674</v>
+        <v>1.041666082578086</v>
       </c>
       <c r="L11">
-        <v>1.038335632498004</v>
+        <v>1.036398186651471</v>
       </c>
       <c r="M11">
-        <v>1.048054728062241</v>
+        <v>1.046215721789774</v>
       </c>
       <c r="N11">
-        <v>1.037991413222174</v>
+        <v>1.02963956768055</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047087307959915</v>
+        <v>1.045632676919996</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042212782041289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040616357354446</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023450516679771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.006872790304147</v>
+        <v>1.004564774123522</v>
       </c>
       <c r="D12">
-        <v>1.029287548652051</v>
+        <v>1.02702492154171</v>
       </c>
       <c r="E12">
-        <v>1.023554197594769</v>
+        <v>1.021642277783322</v>
       </c>
       <c r="F12">
-        <v>1.033651468746933</v>
+        <v>1.03183327024492</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049000800102958</v>
+        <v>1.047830250052436</v>
       </c>
       <c r="J12">
-        <v>1.036389102811982</v>
+        <v>1.034177193105283</v>
       </c>
       <c r="K12">
-        <v>1.043874362826735</v>
+        <v>1.041652057065716</v>
       </c>
       <c r="L12">
-        <v>1.03824363380402</v>
+        <v>1.036366268778141</v>
       </c>
       <c r="M12">
-        <v>1.048161161453098</v>
+        <v>1.046374992301169</v>
       </c>
       <c r="N12">
-        <v>1.037860894213467</v>
+        <v>1.029797832344099</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047494960047041</v>
+        <v>1.046082592821751</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042162158960066</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040606441208016</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023483698141788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007345181431205</v>
+        <v>1.004952681744656</v>
       </c>
       <c r="D13">
-        <v>1.02968569101221</v>
+        <v>1.027348000043852</v>
       </c>
       <c r="E13">
-        <v>1.02402513547405</v>
+        <v>1.02203928475411</v>
       </c>
       <c r="F13">
-        <v>1.034255082355906</v>
+        <v>1.032372904496747</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049205959044917</v>
+        <v>1.047988869025714</v>
       </c>
       <c r="J13">
-        <v>1.03675040384496</v>
+        <v>1.034457044063398</v>
       </c>
       <c r="K13">
-        <v>1.044223232110822</v>
+        <v>1.041927023541059</v>
       </c>
       <c r="L13">
-        <v>1.038663546763262</v>
+        <v>1.036713427747165</v>
       </c>
       <c r="M13">
-        <v>1.04871224090294</v>
+        <v>1.04686306171893</v>
       </c>
       <c r="N13">
-        <v>1.038222708335353</v>
+        <v>1.029912465670195</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048205152845142</v>
+        <v>1.046743324374709</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042406348136734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.04079813102986</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023562664145926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008154444300614</v>
+        <v>1.00563408040979</v>
       </c>
       <c r="D14">
-        <v>1.03027051416049</v>
+        <v>1.027822091514499</v>
       </c>
       <c r="E14">
-        <v>1.024703076317808</v>
+        <v>1.022606910674549</v>
       </c>
       <c r="F14">
-        <v>1.034993415979924</v>
+        <v>1.033015293512359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049453994992928</v>
+        <v>1.048168949254961</v>
       </c>
       <c r="J14">
-        <v>1.037227055299385</v>
+        <v>1.034809660938922</v>
       </c>
       <c r="K14">
-        <v>1.044659543898444</v>
+        <v>1.042254035796902</v>
       </c>
       <c r="L14">
-        <v>1.039190074231226</v>
+        <v>1.037131152874117</v>
       </c>
       <c r="M14">
-        <v>1.049300407300138</v>
+        <v>1.047356527339652</v>
       </c>
       <c r="N14">
-        <v>1.038700036689516</v>
+        <v>1.029975991978417</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048842199214675</v>
+        <v>1.047305712361194</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042716239825485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041030882228152</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023640087838463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008585493651316</v>
+        <v>1.006001278629213</v>
       </c>
       <c r="D15">
-        <v>1.03056619154268</v>
+        <v>1.028063004641075</v>
       </c>
       <c r="E15">
-        <v>1.02504229114249</v>
+        <v>1.022891416335951</v>
       </c>
       <c r="F15">
-        <v>1.035336356417664</v>
+        <v>1.033310514969321</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049568259152958</v>
+        <v>1.048249843642661</v>
       </c>
       <c r="J15">
-        <v>1.037456461400248</v>
+        <v>1.034976919422752</v>
       </c>
       <c r="K15">
-        <v>1.044864953668759</v>
+        <v>1.042405313136022</v>
       </c>
       <c r="L15">
-        <v>1.03943751613895</v>
+        <v>1.037324567169438</v>
       </c>
       <c r="M15">
-        <v>1.049552888365192</v>
+        <v>1.047561849324737</v>
       </c>
       <c r="N15">
-        <v>1.038929768573356</v>
+        <v>1.029990369570209</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049079057532982</v>
+        <v>1.047505336184172</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042867281184764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041144227630105</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023671813993899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01081571746711</v>
+        <v>1.007933948203256</v>
       </c>
       <c r="D16">
-        <v>1.032017690975926</v>
+        <v>1.029259480305268</v>
       </c>
       <c r="E16">
-        <v>1.026707447322116</v>
+        <v>1.024303101140481</v>
       </c>
       <c r="F16">
-        <v>1.036905958667434</v>
+        <v>1.034657806026032</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050073199368637</v>
+        <v>1.048601283211606</v>
       </c>
       <c r="J16">
-        <v>1.038531257523843</v>
+        <v>1.035760490997595</v>
       </c>
       <c r="K16">
-        <v>1.045796904190103</v>
+        <v>1.043084617560513</v>
       </c>
       <c r="L16">
-        <v>1.040575359157947</v>
+        <v>1.038211563801839</v>
       </c>
       <c r="M16">
-        <v>1.050604554230382</v>
+        <v>1.048393356560892</v>
       </c>
       <c r="N16">
-        <v>1.040006091030726</v>
+        <v>1.03002909526203</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049871833871283</v>
+        <v>1.048124049521916</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043529327203975</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041627954868251</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023792059639438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012104506127148</v>
+        <v>1.009077675513362</v>
       </c>
       <c r="D17">
-        <v>1.032826243054339</v>
+        <v>1.029942160109992</v>
       </c>
       <c r="E17">
-        <v>1.027631060566362</v>
+        <v>1.025103451685001</v>
       </c>
       <c r="F17">
-        <v>1.03772057491914</v>
+        <v>1.035363299922927</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050328548617847</v>
+        <v>1.048782045506527</v>
       </c>
       <c r="J17">
-        <v>1.03910534359865</v>
+        <v>1.036191426743363</v>
       </c>
       <c r="K17">
-        <v>1.046282190097666</v>
+        <v>1.043444801220957</v>
       </c>
       <c r="L17">
-        <v>1.04117136211287</v>
+        <v>1.038685191845417</v>
       </c>
       <c r="M17">
-        <v>1.051098042678905</v>
+        <v>1.048778447166852</v>
       </c>
       <c r="N17">
-        <v>1.040580992373609</v>
+        <v>1.030084637541313</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.050133769552117</v>
+        <v>1.048300124336418</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043874999199762</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041885430450448</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023846172733387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01269219190619</v>
+        <v>1.009618187149262</v>
       </c>
       <c r="D18">
-        <v>1.033136667069905</v>
+        <v>1.030211639305353</v>
       </c>
       <c r="E18">
-        <v>1.027980623813524</v>
+        <v>1.02541336065583</v>
       </c>
       <c r="F18">
-        <v>1.037924430796723</v>
+        <v>1.035531204679174</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050382844663009</v>
+        <v>1.048812836202415</v>
       </c>
       <c r="J18">
-        <v>1.03928413246338</v>
+        <v>1.036322691506077</v>
       </c>
       <c r="K18">
-        <v>1.046406923727702</v>
+        <v>1.043528490493678</v>
       </c>
       <c r="L18">
-        <v>1.041333242860442</v>
+        <v>1.038807385565757</v>
       </c>
       <c r="M18">
-        <v>1.051119145310241</v>
+        <v>1.048763568144155</v>
       </c>
       <c r="N18">
-        <v>1.040760035139034</v>
+        <v>1.030076710627988</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049914651993526</v>
+        <v>1.0480521803239</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043951669909828</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04193193112806</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023837306125011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012660720809289</v>
+        <v>1.009612754746672</v>
       </c>
       <c r="D19">
-        <v>1.033015986782256</v>
+        <v>1.030115574452749</v>
       </c>
       <c r="E19">
-        <v>1.02782321751809</v>
+        <v>1.025278953770447</v>
       </c>
       <c r="F19">
-        <v>1.037586909925387</v>
+        <v>1.035213156811876</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050268456839324</v>
+        <v>1.048713607363105</v>
       </c>
       <c r="J19">
-        <v>1.039121925043857</v>
+        <v>1.036184924282608</v>
       </c>
       <c r="K19">
-        <v>1.046226536502626</v>
+        <v>1.043372093147307</v>
       </c>
       <c r="L19">
-        <v>1.041116303380651</v>
+        <v>1.038612870807417</v>
       </c>
       <c r="M19">
-        <v>1.050725681558438</v>
+        <v>1.048389102726109</v>
       </c>
       <c r="N19">
-        <v>1.04059759736637</v>
+        <v>1.029976510710086</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.049280979377933</v>
+        <v>1.047432935003979</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043830463747271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041828320520821</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023775659303888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010882003034632</v>
+        <v>1.008061778629962</v>
       </c>
       <c r="D20">
-        <v>1.031672707895834</v>
+        <v>1.028977664080492</v>
       </c>
       <c r="E20">
-        <v>1.026246009079637</v>
+        <v>1.023897949865634</v>
       </c>
       <c r="F20">
-        <v>1.035758528225956</v>
+        <v>1.033557503466242</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04967688336425</v>
+        <v>1.048244275431459</v>
       </c>
       <c r="J20">
-        <v>1.037999792045553</v>
+        <v>1.035285430844268</v>
       </c>
       <c r="K20">
-        <v>1.045180591497155</v>
+        <v>1.042529420491282</v>
       </c>
       <c r="L20">
-        <v>1.039842536736924</v>
+        <v>1.037533207447834</v>
       </c>
       <c r="M20">
-        <v>1.049200457044074</v>
+        <v>1.047034878857123</v>
       </c>
       <c r="N20">
-        <v>1.039473870810498</v>
+        <v>1.02959408774909</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047551660791775</v>
+        <v>1.045837848758538</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043094836407791</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041236804441737</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023562610565627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006689027998805</v>
+        <v>1.00448489432412</v>
       </c>
       <c r="D21">
-        <v>1.028898088306138</v>
+        <v>1.026729437716035</v>
       </c>
       <c r="E21">
-        <v>1.023054711083785</v>
+        <v>1.021235781208002</v>
       </c>
       <c r="F21">
-        <v>1.032682781875598</v>
+        <v>1.03094317315611</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048677070100443</v>
+        <v>1.047566792821546</v>
       </c>
       <c r="J21">
-        <v>1.035909721602587</v>
+        <v>1.033796293388884</v>
       </c>
       <c r="K21">
-        <v>1.043351908160284</v>
+        <v>1.041221510858143</v>
       </c>
       <c r="L21">
-        <v>1.037612084210918</v>
+        <v>1.035825702644694</v>
       </c>
       <c r="M21">
-        <v>1.047070341030398</v>
+        <v>1.045361110326809</v>
       </c>
       <c r="N21">
-        <v>1.037380832227768</v>
+        <v>1.029562355716626</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045825388726883</v>
+        <v>1.044472655876602</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041805106647095</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040315597197832</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023323453435283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004023348220633</v>
+        <v>1.002195832511479</v>
       </c>
       <c r="D22">
-        <v>1.027142874185474</v>
+        <v>1.025299000835896</v>
       </c>
       <c r="E22">
-        <v>1.021043334280584</v>
+        <v>1.019548889432049</v>
       </c>
       <c r="F22">
-        <v>1.03076130195087</v>
+        <v>1.029305484028907</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048039151897521</v>
+        <v>1.047127646644575</v>
       </c>
       <c r="J22">
-        <v>1.034587962465504</v>
+        <v>1.032839949770846</v>
       </c>
       <c r="K22">
-        <v>1.042195143793317</v>
+        <v>1.040385405047303</v>
       </c>
       <c r="L22">
-        <v>1.036209135841915</v>
+        <v>1.034742778057756</v>
       </c>
       <c r="M22">
-        <v>1.045747047821431</v>
+        <v>1.044317921434361</v>
       </c>
       <c r="N22">
-        <v>1.036057196041103</v>
+        <v>1.029494783334078</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044778097792148</v>
+        <v>1.043647045863088</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040973856718201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039709742935046</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023169493785715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005431565328817</v>
+        <v>1.003380285992872</v>
       </c>
       <c r="D23">
-        <v>1.028064131286042</v>
+        <v>1.026029540137146</v>
       </c>
       <c r="E23">
-        <v>1.022103548698798</v>
+        <v>1.020416042362792</v>
       </c>
       <c r="F23">
-        <v>1.031773809736613</v>
+        <v>1.030150060558931</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048372707161487</v>
+        <v>1.047343118638322</v>
       </c>
       <c r="J23">
-        <v>1.035281954352589</v>
+        <v>1.033317345571097</v>
       </c>
       <c r="K23">
-        <v>1.042798976133786</v>
+        <v>1.040801106693168</v>
       </c>
       <c r="L23">
-        <v>1.03694651224615</v>
+        <v>1.035289914332346</v>
       </c>
       <c r="M23">
-        <v>1.046442183676761</v>
+        <v>1.04484745270638</v>
       </c>
       <c r="N23">
-        <v>1.036752173476269</v>
+        <v>1.029444785272434</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045328247767579</v>
+        <v>1.04406613242115</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041391238383326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03999316033349</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023241565969076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010894543750701</v>
+        <v>1.008075465015276</v>
       </c>
       <c r="D24">
-        <v>1.031658666085811</v>
+        <v>1.028964622196816</v>
       </c>
       <c r="E24">
-        <v>1.02623478658605</v>
+        <v>1.023887766211696</v>
       </c>
       <c r="F24">
-        <v>1.03572188290348</v>
+        <v>1.033521611864383</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049659105401456</v>
+        <v>1.048227232328067</v>
       </c>
       <c r="J24">
-        <v>1.037979572189923</v>
+        <v>1.035266161551264</v>
       </c>
       <c r="K24">
-        <v>1.045151730119247</v>
+        <v>1.042501488187387</v>
       </c>
       <c r="L24">
-        <v>1.039816338131027</v>
+        <v>1.03750798203128</v>
       </c>
       <c r="M24">
-        <v>1.049149436660109</v>
+        <v>1.046984558005599</v>
       </c>
       <c r="N24">
-        <v>1.039453622240353</v>
+        <v>1.029575413447284</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047470839640054</v>
+        <v>1.045757497707968</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04304728828256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041187203180641</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023550818729491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017044677250633</v>
+        <v>1.013742703631446</v>
       </c>
       <c r="D25">
-        <v>1.035727607032854</v>
+        <v>1.03257493892226</v>
       </c>
       <c r="E25">
-        <v>1.03091605739908</v>
+        <v>1.028153837742524</v>
       </c>
       <c r="F25">
-        <v>1.040200355021505</v>
+        <v>1.037621923710962</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051076743148188</v>
+        <v>1.049384252094287</v>
       </c>
       <c r="J25">
-        <v>1.041011727440177</v>
+        <v>1.037816260000709</v>
       </c>
       <c r="K25">
-        <v>1.047795506020602</v>
+        <v>1.044687773397751</v>
       </c>
       <c r="L25">
-        <v>1.043052675926031</v>
+        <v>1.040330275140746</v>
       </c>
       <c r="M25">
-        <v>1.0522050935708</v>
+        <v>1.04966298870757</v>
       </c>
       <c r="N25">
-        <v>1.042490083498856</v>
+        <v>1.030910501132763</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.0498891601712</v>
+        <v>1.047877277659989</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044913704975212</v>
+        <v>1.042729854347396</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02398201869755</v>
       </c>
     </row>
   </sheetData>
